--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_32_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_32_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.5764275506189005, 6.135697804805114]</t>
+          <t>[5.562364451724285, 6.149760903699729]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.09871111095884544, 0.40444708351331116]</t>
+          <t>[0.0989051575137303, 0.4042530369584263]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.001818825590540252</v>
+        <v>0.001796973194729157</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001818825590540252</v>
+        <v>0.001796973194729157</v>
       </c>
       <c r="W2" t="n">
         <v>20.02018018018046</v>
